--- a/Module 03 - Data Management.xlsx
+++ b/Module 03 - Data Management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/AD/Bob's Class notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/AD/Bob's AD Class notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="567" documentId="8_{4EEEBE67-7FE1-4DC3-B6BC-F730F1889540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FFA2617-3D07-412D-B77B-5C6A2BDD10E1}"/>
+  <xr:revisionPtr revIDLastSave="575" documentId="8_{4EEEBE67-7FE1-4DC3-B6BC-F730F1889540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A2A551D-FDFB-4D83-B028-EE48A843C0F5}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="5415" windowHeight="5430" activeTab="4" xr2:uid="{13D96D72-C585-435A-A2DA-89107CFF9448}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{13D96D72-C585-435A-A2DA-89107CFF9448}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="253">
   <si>
     <t>Main</t>
   </si>
@@ -857,6 +857,15 @@
   </si>
   <si>
     <t>sales generated per subscription type</t>
+  </si>
+  <si>
+    <t>WSE3.1</t>
+  </si>
+  <si>
+    <t>WSE3.2</t>
+  </si>
+  <si>
+    <t>WSE3.3</t>
   </si>
 </sst>
 </file>
@@ -1724,22 +1733,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36005EA1-C714-4675-991F-8B943630A54E}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="'Module 3'!A1" display="Module 3" xr:uid="{E6016C4A-4C3A-4249-B0EC-BCE8DB508D08}"/>
+    <hyperlink ref="C2" location="WSE3.1!A1" display="WSE3.1" xr:uid="{A9AEDEDE-CEFA-4E3A-8FA7-BE7454690798}"/>
+    <hyperlink ref="C3" location="WSE3.2!A1" display="WSE3.2" xr:uid="{06E3133D-25E1-4C91-BA45-258489FE3AB0}"/>
+    <hyperlink ref="C4" location="WSE3.3!A1" display="WSE3.3" xr:uid="{20AAA01B-15EF-4DD0-BDF2-2A7C97EE3E77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1750,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACAB517-88AB-4CB5-95DE-E6FD998AF039}">
   <dimension ref="A1:X424"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2856,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9184EDE8-EC40-447C-AAB4-CCBA93324B46}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3003,8 +3028,8 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3095,7 +3120,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
